--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -497,16 +497,16 @@
         <v>10868846.75440167</v>
       </c>
       <c r="F2" t="n">
-        <v>22700277.53866357</v>
+        <v>22700277.5386635</v>
       </c>
       <c r="G2" t="n">
-        <v>8560876.209018489</v>
+        <v>8560876.20901845</v>
       </c>
       <c r="H2" t="n">
-        <v>6.118619293389627</v>
+        <v>6.118619293389694</v>
       </c>
       <c r="I2" t="n">
-        <v>2307.970545383173</v>
+        <v>2307.970545383213</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>49207694.01521884</v>
       </c>
       <c r="F3" t="n">
-        <v>102773570.4964267</v>
+        <v>102773570.4964264</v>
       </c>
       <c r="G3" t="n">
-        <v>38758637.06134862</v>
+        <v>38758637.06134845</v>
       </c>
       <c r="H3" t="n">
-        <v>27.70130727308697</v>
+        <v>27.70130727308727</v>
       </c>
       <c r="I3" t="n">
-        <v>10449.05695387022</v>
+        <v>10449.0569538704</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>109916258.2280364</v>
       </c>
       <c r="F4" t="n">
-        <v>229567525.0913672</v>
+        <v>229567525.0913665</v>
       </c>
       <c r="G4" t="n">
-        <v>86575997.57914513</v>
+        <v>86575997.57914473</v>
       </c>
       <c r="H4" t="n">
-        <v>61.8769458968865</v>
+        <v>61.87694589688716</v>
       </c>
       <c r="I4" t="n">
-        <v>23340.26064889125</v>
+        <v>23340.26064889166</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>234782079.7516582</v>
       </c>
       <c r="F5" t="n">
-        <v>490358341.933172</v>
+        <v>490358341.9331707</v>
       </c>
       <c r="G5" t="n">
-        <v>184927126.0531702</v>
+        <v>184927126.0531694</v>
       </c>
       <c r="H5" t="n">
-        <v>132.1695724633061</v>
+        <v>132.1695724633075</v>
       </c>
       <c r="I5" t="n">
-        <v>49854.95369848797</v>
+        <v>49854.95369848885</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>489000600.7089588</v>
       </c>
       <c r="F6" t="n">
-        <v>1021311085.732574</v>
+        <v>1021311085.732572</v>
       </c>
       <c r="G6" t="n">
-        <v>385163476.9381708</v>
+        <v>385163476.938169</v>
       </c>
       <c r="H6" t="n">
-        <v>275.2807340992346</v>
+        <v>275.2807340992375</v>
       </c>
       <c r="I6" t="n">
-        <v>103837.1237707879</v>
+        <v>103837.1237707898</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>1003267448.21625</v>
       </c>
       <c r="F7" t="n">
-        <v>2095392498.272068</v>
+        <v>2095392498.272062</v>
       </c>
       <c r="G7" t="n">
-        <v>790228042.6659602</v>
+        <v>790228042.6659565</v>
       </c>
       <c r="H7" t="n">
-        <v>564.7849422200164</v>
+        <v>564.7849422200225</v>
       </c>
       <c r="I7" t="n">
-        <v>213039.4055502897</v>
+        <v>213039.4055502934</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>2039385426.871216</v>
       </c>
       <c r="F8" t="n">
-        <v>4259395571.523443</v>
+        <v>4259395571.52343</v>
       </c>
       <c r="G8" t="n">
-        <v>1606330951.458266</v>
+        <v>1606330951.458258</v>
       </c>
       <c r="H8" t="n">
-        <v>1148.062942826406</v>
+        <v>1148.062942826419</v>
       </c>
       <c r="I8" t="n">
-        <v>433054.4754129503</v>
+        <v>433054.4754129578</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>4121471153.61997</v>
       </c>
       <c r="F9" t="n">
-        <v>8607973787.180944</v>
+        <v>8607973787.180918</v>
       </c>
       <c r="G9" t="n">
-        <v>3246295041.663496</v>
+        <v>3246295041.663481</v>
       </c>
       <c r="H9" t="n">
-        <v>2320.163673608893</v>
+        <v>2320.163673608918</v>
       </c>
       <c r="I9" t="n">
-        <v>875176.1119564734</v>
+        <v>875176.1119564887</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>8298461908.505033</v>
       </c>
       <c r="F10" t="n">
-        <v>17331904010.83662</v>
+        <v>17331904010.83656</v>
       </c>
       <c r="G10" t="n">
-        <v>6536320328.534113</v>
+        <v>6536320328.534081</v>
       </c>
       <c r="H10" t="n">
-        <v>4671.581897366708</v>
+        <v>4671.581897366757</v>
       </c>
       <c r="I10" t="n">
-        <v>1762141.57997092</v>
+        <v>1762141.57997095</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>16669087686.31869</v>
       </c>
       <c r="F11" t="n">
-        <v>34814527465.50486</v>
+        <v>34814527465.50475</v>
       </c>
       <c r="G11" t="n">
-        <v>13129480953.9333</v>
+        <v>13129480953.93324</v>
       </c>
       <c r="H11" t="n">
-        <v>9383.78784229717</v>
+        <v>9383.787842297268</v>
       </c>
       <c r="I11" t="n">
-        <v>3539606.732385383</v>
+        <v>3539606.732385445</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>33431992665.66237</v>
       </c>
       <c r="F12" t="n">
-        <v>69824998915.71069</v>
+        <v>69824998915.71048</v>
       </c>
       <c r="G12" t="n">
-        <v>26332857577.51674</v>
+        <v>26332857577.5166</v>
       </c>
       <c r="H12" t="n">
-        <v>18820.38954247056</v>
+        <v>18820.38954247076</v>
       </c>
       <c r="I12" t="n">
-        <v>7099135.088145641</v>
+        <v>7099135.088145765</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>New homes</t>
+  </si>
+  <si>
+    <t>Renovations</t>
+  </si>
+  <si>
+    <t>Regular energy consumption [kWh]</t>
+  </si>
+  <si>
+    <t>Regular CO2 emissions [kg]</t>
+  </si>
+  <si>
+    <t>Improved energy consumption</t>
+  </si>
+  <si>
+    <t>Improved CO2 emissions</t>
+  </si>
+  <si>
+    <t>Energy savings [GWh]</t>
+  </si>
+  <si>
+    <t>CO2 savings [Tons]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,386 +397,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>New homes</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Renovations</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Regular energy consumption [kWh]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Regular CO2 emissions [kg]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Improved energy consumption</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Improved CO2 emissions</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Energy savings [GWh]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CO2 savings [Tons]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2026</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1277</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2323</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>28818896.8320532</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10868846.75440167</v>
       </c>
-      <c r="F2" t="n">
-        <v>22700277.5386635</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8560876.20901845</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.118619293389694</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2307.970545383213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="F2">
+        <v>22700277.53867162</v>
+      </c>
+      <c r="G2">
+        <v>8560876.209017346</v>
+      </c>
+      <c r="H2">
+        <v>6.118619293381573</v>
+      </c>
+      <c r="I2">
+        <v>2307.970545384318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2027</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4506</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8194</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>130474877.7695137</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>49207694.01521884</v>
       </c>
-      <c r="F3" t="n">
-        <v>102773570.4964264</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38758637.06134845</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.70130727308727</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10449.0569538704</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F3">
+        <v>102773570.4964632</v>
+      </c>
+      <c r="G3">
+        <v>38758637.06134345</v>
+      </c>
+      <c r="H3">
+        <v>27.7013072730505</v>
+      </c>
+      <c r="I3">
+        <v>10449.0569538754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2028</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5858</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10652</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>291444470.9882537</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>109916258.2280364</v>
       </c>
-      <c r="F4" t="n">
-        <v>229567525.0913665</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86575997.57914473</v>
-      </c>
-      <c r="H4" t="n">
-        <v>61.87694589688716</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23340.26064889166</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F4">
+        <v>229567525.0914487</v>
+      </c>
+      <c r="G4">
+        <v>86575997.57913357</v>
+      </c>
+      <c r="H4">
+        <v>61.87694589680504</v>
+      </c>
+      <c r="I4">
+        <v>23340.26064890283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2029</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7616</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13847</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>622527914.3964782</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>234782079.7516582</v>
       </c>
-      <c r="F5" t="n">
-        <v>490358341.9331707</v>
-      </c>
-      <c r="G5" t="n">
-        <v>184927126.0531694</v>
-      </c>
-      <c r="H5" t="n">
-        <v>132.1695724633075</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49854.95369848885</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F5">
+        <v>490358341.933346</v>
+      </c>
+      <c r="G5">
+        <v>184927126.0531455</v>
+      </c>
+      <c r="H5">
+        <v>132.1695724631321</v>
+      </c>
+      <c r="I5">
+        <v>49854.95369851269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2030</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9901</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18001</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1296591819.831809</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>489000600.7089588</v>
       </c>
-      <c r="F6" t="n">
-        <v>1021311085.732572</v>
-      </c>
-      <c r="G6" t="n">
-        <v>385163476.938169</v>
-      </c>
-      <c r="H6" t="n">
-        <v>275.2807340992375</v>
-      </c>
-      <c r="I6" t="n">
-        <v>103837.1237707898</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="F6">
+        <v>1021311085.732937</v>
+      </c>
+      <c r="G6">
+        <v>385163476.9381193</v>
+      </c>
+      <c r="H6">
+        <v>275.2807340988722</v>
+      </c>
+      <c r="I6">
+        <v>103837.1237708394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2031</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12871</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>23401</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2660177440.492085</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1003267448.21625</v>
       </c>
-      <c r="F7" t="n">
-        <v>2095392498.272062</v>
-      </c>
-      <c r="G7" t="n">
-        <v>790228042.6659565</v>
-      </c>
-      <c r="H7" t="n">
-        <v>564.7849422200225</v>
-      </c>
-      <c r="I7" t="n">
-        <v>213039.4055502934</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F7">
+        <v>2095392498.272812</v>
+      </c>
+      <c r="G7">
+        <v>790228042.6658546</v>
+      </c>
+      <c r="H7">
+        <v>564.7849422192729</v>
+      </c>
+      <c r="I7">
+        <v>213039.4055503953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2032</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>16732</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>30422</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5407458514.34985</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2039385426.871216</v>
       </c>
-      <c r="F8" t="n">
-        <v>4259395571.52343</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1606330951.458258</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1148.062942826419</v>
-      </c>
-      <c r="I8" t="n">
-        <v>433054.4754129578</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="F8">
+        <v>4259395571.524954</v>
+      </c>
+      <c r="G8">
+        <v>1606330951.458051</v>
+      </c>
+      <c r="H8">
+        <v>1148.062942824895</v>
+      </c>
+      <c r="I8">
+        <v>433054.4754131649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2033</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>21752</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>39548</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10928137460.78984</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4121471153.61997</v>
       </c>
-      <c r="F9" t="n">
-        <v>8607973787.180918</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3246295041.663481</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2320.163673608918</v>
-      </c>
-      <c r="I9" t="n">
-        <v>875176.1119564887</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="F9">
+        <v>8607973787.183998</v>
+      </c>
+      <c r="G9">
+        <v>3246295041.663062</v>
+      </c>
+      <c r="H9">
+        <v>2320.163673605839</v>
+      </c>
+      <c r="I9">
+        <v>875176.1119569072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2034</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>28277</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>51414</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>22003485908.20332</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8298461908.505033</v>
       </c>
-      <c r="F10" t="n">
-        <v>17331904010.83656</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6536320328.534081</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4671.581897366757</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1762141.57997095</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="F10">
+        <v>17331904010.84277</v>
+      </c>
+      <c r="G10">
+        <v>6536320328.533238</v>
+      </c>
+      <c r="H10">
+        <v>4671.581897360559</v>
+      </c>
+      <c r="I10">
+        <v>1762141.579971793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2035</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>36761</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>66837</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>44198315307.80202</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>16669087686.31869</v>
       </c>
-      <c r="F11" t="n">
-        <v>34814527465.50475</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13129480953.93324</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9383.787842297268</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3539606.732385445</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="F11">
+        <v>34814527465.51721</v>
+      </c>
+      <c r="G11">
+        <v>13129480953.93155</v>
+      </c>
+      <c r="H11">
+        <v>9383.787842284817</v>
+      </c>
+      <c r="I11">
+        <v>3539606.732387138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2036</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>47789</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>86888</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>88645388458.18123</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>33431992665.66237</v>
       </c>
-      <c r="F12" t="n">
-        <v>69824998915.71048</v>
-      </c>
-      <c r="G12" t="n">
-        <v>26332857577.5166</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18820.38954247076</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7099135.088145765</v>
+      <c r="F12">
+        <v>69824998915.73547</v>
+      </c>
+      <c r="G12">
+        <v>26332857577.51321</v>
+      </c>
+      <c r="H12">
+        <v>18820.38954244578</v>
+      </c>
+      <c r="I12">
+        <v>7099135.08814916</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>